--- a/pidis/new/10001.xlsx
+++ b/pidis/new/10001.xlsx
@@ -5,18 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/pidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA01D60-1A69-7C46-B044-B9E4A61F5B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D064B6-650E-DE4F-9F68-214CDE3769C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31380" windowHeight="17440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Elab</t>
   </si>
@@ -76,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +98,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,8 +137,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,18 +420,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK16"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12" max="1024" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,14 +467,11 @@
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>160</v>
       </c>
@@ -483,18 +500,15 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="J2" s="3">
-        <f>G2/10</f>
-        <v>-5.4000000000000001E-4</v>
+        <f>G2*0.08</f>
+        <v>-4.3200000000000004E-4</v>
       </c>
       <c r="K2" s="1">
         <f>MAX(I2^2-J2^2,0)^0.5</f>
-        <v>4.7695282785617278E-3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.7805204737559693E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>160</v>
       </c>
@@ -523,18 +537,15 @@
         <v>4.3E-3</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J16" si="0">G3/10</f>
-        <v>2.9999999999999997E-5</v>
+        <f t="shared" ref="J3:J16" si="0">G3*0.08</f>
+        <v>2.3999999999999997E-5</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K2:K16" si="1">MAX(I3^2-J3^2,0)^0.5</f>
-        <v>4.2998953475637059E-3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I3^2-J3^2,0)^0.5</f>
+        <v>4.2999330227341918E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>160</v>
       </c>
@@ -564,17 +575,14 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>-1.1E-4</v>
+        <v>-8.8000000000000011E-5</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>2.297368059323538E-3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I4^2-J4^2,0)^0.5</f>
+        <v>2.2983159051792683E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>160</v>
       </c>
@@ -604,17 +612,14 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>-8.699999999999999E-4</v>
+        <v>-6.96E-4</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9754159373102779E-3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I5^2-J5^2,0)^0.5</f>
+        <v>3.0208581562198513E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>160</v>
       </c>
@@ -644,17 +649,14 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>-1.1E-4</v>
+        <v>-8.8000000000000011E-5</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3974778413991646E-3</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I6^2-J6^2,0)^0.5</f>
+        <v>2.3983861240425819E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>160</v>
       </c>
@@ -684,17 +686,14 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>7.5000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3162478797580859E-3</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I7^2-J7^2,0)^0.5</f>
+        <v>3.3466401061363021E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>160</v>
       </c>
@@ -724,17 +723,14 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>9.5E-4</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0911489828653266E-3</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I8^2-J8^2,0)^0.5</f>
+        <v>4.130665805896187E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>160</v>
       </c>
@@ -764,17 +760,14 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>1.5900000000000001E-3</v>
+        <v>1.2720000000000001E-3</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1026698624188618E-3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I9^2-J9^2,0)^0.5</f>
+        <v>4.212127253538288E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>160</v>
       </c>
@@ -804,17 +797,14 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>5.2699999999999995E-3</v>
+        <v>4.2160000000000001E-3</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9058230705968193E-3</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I10^2-J10^2,0)^0.5</f>
+        <v>5.8365524070293417E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>160</v>
       </c>
@@ -844,17 +834,14 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>5.545268253204708E-3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I11^2-J11^2,0)^0.5</f>
+        <v>7.9523581408284163E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>160</v>
       </c>
@@ -884,17 +871,14 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>1.21E-2</v>
+        <v>9.6799999999999994E-3</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0468524251297314E-2</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I12^2-J12^2,0)^0.5</f>
+        <v>1.2739607529276558E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>160</v>
       </c>
@@ -924,17 +908,14 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002E-2</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I13^2-J13^2,0)^0.5</f>
+        <v>1.5367498169838838E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>160</v>
       </c>
@@ -964,17 +945,14 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>1.9E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1090536506409416E-2</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I14^2-J14^2,0)^0.5</f>
+        <v>1.5904716281656833E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>160</v>
       </c>
@@ -1004,17 +982,14 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>3.1699999999999999E-2</v>
+        <v>2.5360000000000001E-2</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7061945961700846E-2</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <f>MAX(I15^2-J15^2,0)^0.5</f>
+        <v>2.5551328732572789E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>160</v>
       </c>
@@ -1044,14 +1019,11 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>4.9399999999999999E-2</v>
+        <v>3.952E-2</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7938501602552298E-2</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>10</v>
+        <f>MAX(I16^2-J16^2,0)^0.5</f>
+        <v>7.4122665899170145E-2</v>
       </c>
     </row>
   </sheetData>
